--- a/Pre-Season/Image Files/Portrait20Sheets.xlsx
+++ b/Pre-Season/Image Files/Portrait20Sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scouting\Documents\2020Scouting\Pre-Season\Image Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F759C933-CBD5-4327-8DC1-7DEC6CF1B788}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAB4E00-F616-466C-93D0-5DFAD8385376}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{951DCDBF-09FF-4A21-A202-668E98DACDD3}"/>
   </bookViews>
@@ -390,6 +390,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD6C15CD-A906-4A50-99C6-42D3765E2F6D}" name="test12" displayName="test12" ref="A1:AJ21" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:AJ21" xr:uid="{301F1E39-7607-4A36-820B-2C3F51CE3F33}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ21">
+    <sortCondition ref="A2:A21"/>
+  </sortState>
   <tableColumns count="36">
     <tableColumn id="1" xr3:uid="{D52DE92D-B278-4851-ABAC-74648DCA8355}" uniqueName="1" name="File name" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{9CBEF35A-3342-4292-BA60-FF91ADDA1ACF}" uniqueName="2" name="AHG.Question026" queryTableFieldId="2" dataDxfId="12"/>
@@ -731,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64B3BD5-9603-45F2-8537-C17AFF43A6E8}">
   <dimension ref="A1:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,34 +879,40 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -912,6 +921,9 @@
         <v>37</v>
       </c>
       <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
@@ -921,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>38</v>
@@ -951,39 +963,45 @@
         <v>38</v>
       </c>
       <c r="AG2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AI2">
         <v>6</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -991,20 +1009,17 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="P3">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="S3">
         <v>2</v>
@@ -1019,64 +1034,70 @@
         <v>1</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="X3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="AB3" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
         <v>6</v>
-      </c>
-      <c r="AH3">
-        <v>9</v>
       </c>
       <c r="AI3">
         <v>6</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
       <c r="H4">
         <v>1</v>
       </c>
@@ -1084,15 +1105,21 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
         <v>1</v>
       </c>
       <c r="P4">
@@ -1102,19 +1129,22 @@
         <v>2</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="S4">
         <v>2</v>
       </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
       <c r="U4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>38</v>
@@ -1126,45 +1156,42 @@
         <v>38</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1173,24 +1200,21 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="N5">
         <v>1</v>
       </c>
       <c r="P5">
@@ -1200,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S5">
         <v>2</v>
@@ -1215,114 +1239,108 @@
         <v>1</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>6</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>3</v>
       </c>
       <c r="P6">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>38</v>
@@ -1331,191 +1349,173 @@
         <v>38</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>50</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>100</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG7">
-        <v>3</v>
-      </c>
-      <c r="AH7">
-        <v>6</v>
-      </c>
-      <c r="AI7">
-        <v>4</v>
-      </c>
       <c r="AJ7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>44</v>
@@ -1524,51 +1524,48 @@
         <v>38</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <v>1</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1577,9 +1574,15 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>1</v>
       </c>
       <c r="P9">
@@ -1589,22 +1592,13 @@
         <v>2</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>44</v>
@@ -1616,7 +1610,7 @@
         <v>38</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>38</v>
@@ -1637,24 +1631,24 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1663,37 +1657,40 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q10">
         <v>2</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>38</v>
@@ -1720,84 +1717,93 @@
         <v>38</v>
       </c>
       <c r="AG10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AI10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>25</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AE11" s="1" t="s">
         <v>38</v>
@@ -1806,84 +1812,78 @@
         <v>38</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P12">
         <v>75</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>38</v>
@@ -1901,66 +1901,69 @@
         <v>38</v>
       </c>
       <c r="AG12">
+        <v>2</v>
+      </c>
+      <c r="AH12">
         <v>4</v>
-      </c>
-      <c r="AH12">
-        <v>3</v>
       </c>
       <c r="AI12">
         <v>6</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
       </c>
       <c r="L13">
         <v>5</v>
       </c>
-      <c r="N13">
+      <c r="M13">
         <v>1</v>
       </c>
       <c r="P13">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>38</v>
@@ -1975,42 +1978,42 @@
         <v>38</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2019,6 +2022,9 @@
         <v>1</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
@@ -2028,52 +2034,46 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L14">
         <v>3</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
       <c r="P14">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>38</v>
@@ -2082,31 +2082,34 @@
         <v>38</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AG14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
       <c r="D15">
         <v>1</v>
       </c>
@@ -2117,46 +2120,43 @@
         <v>2</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y15" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>44</v>
@@ -2165,53 +2165,47 @@
         <v>38</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AC15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE15" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="AF15" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15">
         <v>1</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
@@ -2221,49 +2215,40 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L16">
-        <v>9</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P16">
         <v>100</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="U16">
+        <v>37</v>
+      </c>
+      <c r="T16">
         <v>1</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB16" s="1" t="s">
         <v>38</v>
@@ -2281,24 +2266,24 @@
         <v>38</v>
       </c>
       <c r="AG16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AH16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AI16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -2307,19 +2292,19 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -2331,28 +2316,34 @@
         <v>75</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y17" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="Z17" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB17" s="1" t="s">
         <v>38</v>
@@ -2370,114 +2361,108 @@
         <v>38</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH17">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AI17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>3</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
       <c r="N18">
         <v>1</v>
       </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
       <c r="P18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="S18">
         <v>2</v>
       </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
       <c r="U18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AG18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ18" s="1" t="s">
         <v>52</v>
@@ -2485,64 +2470,76 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>9</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="O19">
         <v>1</v>
       </c>
       <c r="P19">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19">
         <v>1</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>38</v>
@@ -2560,13 +2557,13 @@
         <v>38</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ19" s="1" t="s">
         <v>36</v>
@@ -2574,16 +2571,19 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2595,52 +2595,58 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
         <v>1</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
       <c r="P20">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="Y20" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="AD20" s="1" t="s">
         <v>45</v>
@@ -2652,27 +2658,27 @@
         <v>42</v>
       </c>
       <c r="AG20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH20">
+        <v>3</v>
+      </c>
+      <c r="AI20">
         <v>5</v>
       </c>
-      <c r="AI20">
-        <v>9</v>
-      </c>
       <c r="AJ20" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2680,14 +2686,8 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2696,67 +2696,70 @@
         <v>0</v>
       </c>
       <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="N21">
         <v>1</v>
       </c>
       <c r="P21">
         <v>25</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>2</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE21" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="AF21" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
